--- a/Running projects/Food Court North Walk/329-330 Bill for swimming pool work Food court hydery.xlsx
+++ b/Running projects/Food Court North Walk/329-330 Bill for swimming pool work Food court hydery.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Completed Projects\Food Court North Walk\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\Food Court North Walk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85CCEECC-92B5-4932-B9FF-530662A3A8B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32278FDF-4E30-4AFA-B07D-71A410E21C69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -253,9 +253,6 @@
     <t>Total Amount</t>
   </si>
   <si>
-    <t>Bill for Supply of Material for Swimming Pool work at Gym Area The North Walk Shopping mall.</t>
-  </si>
-  <si>
     <t>Installation of SCH-40 UPVC Pipe with related fittings such as tee, elbow.</t>
   </si>
   <si>
@@ -280,7 +277,10 @@
     <t>Core Cuttings work.</t>
   </si>
   <si>
-    <t>Bill for Installation of Material for Swimming Pool work at Gym Area The North Walk Shopping mall.</t>
+    <t>Bill for Installation of Material for Swimming Pool work at Atmosphere gym The North Walk Shopping mall.</t>
+  </si>
+  <si>
+    <t>Bill for Supply of Material for Swimming Pool work at Atmosphere gym The North Walk Shopping mall.</t>
   </si>
 </sst>
 </file>
@@ -613,68 +613,68 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -698,10 +698,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>225183</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>685800</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>406158</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="642937" cy="466636"/>
     <xdr:pic>
@@ -731,7 +731,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="225183" y="10525125"/>
+          <a:off x="9502533" y="8791575"/>
           <a:ext cx="642937" cy="466636"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -743,16 +743,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>677546</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>361951</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>86996</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>285751</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>257175</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -769,7 +769,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1010921" y="361951"/>
+          <a:off x="11316971" y="1638301"/>
           <a:ext cx="4646929" cy="657224"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -846,16 +846,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>76202</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>704851</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>142876</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>114301</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -879,7 +879,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="85725" y="76202"/>
+          <a:off x="10391775" y="1352552"/>
           <a:ext cx="952501" cy="828674"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -903,10 +903,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>129933</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>561975</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>444258</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="832092" cy="603922"/>
     <xdr:pic>
@@ -936,7 +936,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="129933" y="10382250"/>
+          <a:off x="9121533" y="9305925"/>
           <a:ext cx="832092" cy="603922"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -948,16 +948,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>725171</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>266700</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>163196</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -974,7 +974,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1058546" y="266700"/>
+          <a:off x="10440671" y="1438275"/>
           <a:ext cx="4761229" cy="638174"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1051,16 +1051,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>790576</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228601</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1084,7 +1084,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="171450" y="57150"/>
+          <a:off x="9553575" y="1228725"/>
           <a:ext cx="952501" cy="800099"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1393,8 +1393,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1448,15 +1448,15 @@
       <c r="F5" s="22"/>
     </row>
     <row r="6" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E6" s="31" t="s">
+      <c r="E6" s="27" t="s">
         <v>0</v>
       </c>
       <c r="F6" s="2">
-        <v>45533</v>
+        <v>45631</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E7" s="32" t="s">
+      <c r="E7" s="28" t="s">
         <v>25</v>
       </c>
       <c r="F7" s="3">
@@ -1464,7 +1464,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E8" s="31" t="s">
+      <c r="E8" s="27" t="s">
         <v>1</v>
       </c>
       <c r="F8" s="1" t="s">
@@ -1472,24 +1472,24 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
     </row>
     <row r="10" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
     </row>
     <row r="11" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="24"/>
@@ -1500,14 +1500,14 @@
       <c r="F11" s="5"/>
     </row>
     <row r="12" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
     </row>
     <row r="13" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="25"/>
@@ -1518,14 +1518,14 @@
       <c r="F13" s="25"/>
     </row>
     <row r="14" spans="1:6" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="36"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
+      <c r="A14" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="45"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
     </row>
     <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
@@ -1543,7 +1543,7 @@
       <c r="E15" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="47" t="s">
+      <c r="F15" s="37" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1571,11 +1571,11 @@
         <v>506</v>
       </c>
       <c r="E17" s="20">
-        <v>680</v>
+        <v>715</v>
       </c>
       <c r="F17" s="20">
         <f>E17*D17</f>
-        <v>344080</v>
+        <v>361790</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -1590,11 +1590,11 @@
         <v>159</v>
       </c>
       <c r="E18" s="20">
-        <v>550</v>
+        <v>580</v>
       </c>
       <c r="F18" s="20">
         <f t="shared" ref="F18:F28" si="0">E18*D18</f>
-        <v>87450</v>
+        <v>92220</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="8" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1650,7 +1650,7 @@
         <v>68000</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A22" s="9">
         <v>3</v>
       </c>
@@ -1664,11 +1664,11 @@
         <v>1</v>
       </c>
       <c r="E22" s="21">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="F22" s="20">
         <f t="shared" si="0"/>
-        <v>5000</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="8" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1685,11 +1685,11 @@
         <v>1</v>
       </c>
       <c r="E23" s="18">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="F23" s="20">
         <f t="shared" si="0"/>
-        <v>5000</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -1706,11 +1706,11 @@
         <v>1</v>
       </c>
       <c r="E24" s="18">
-        <v>57000</v>
+        <v>78000</v>
       </c>
       <c r="F24" s="20">
         <f t="shared" si="0"/>
-        <v>57000</v>
+        <v>78000</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="8" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1777,19 +1777,19 @@
       </c>
     </row>
     <row r="28" spans="1:6" s="8" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="37">
+      <c r="A28" s="31">
         <v>9</v>
       </c>
-      <c r="B28" s="38" t="s">
+      <c r="B28" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="39" t="s">
+      <c r="C28" s="33" t="s">
         <v>23</v>
       </c>
       <c r="D28" s="9">
         <v>1</v>
       </c>
-      <c r="E28" s="40">
+      <c r="E28" s="34">
         <v>8000</v>
       </c>
       <c r="F28" s="21">
@@ -1798,16 +1798,16 @@
       </c>
     </row>
     <row r="29" spans="1:6" s="8" customFormat="1" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="41" t="s">
+      <c r="A29" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="42"/>
-      <c r="C29" s="42"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="43">
+      <c r="B29" s="39"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="35">
         <f>SUM(F16:F28)</f>
-        <v>833530</v>
+        <v>883010</v>
       </c>
     </row>
     <row r="30" spans="1:6" s="8" customFormat="1" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -1815,18 +1815,18 @@
       <c r="B30" s="10"/>
       <c r="C30" s="14"/>
       <c r="D30" s="14"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="34"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="30"/>
     </row>
     <row r="31" spans="1:6" ht="70.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="29" t="s">
+      <c r="A31" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="30"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
+      <c r="B31" s="41"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
     </row>
     <row r="32" spans="1:6" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
@@ -1849,8 +1849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05BBFCDE-85D1-4638-B2D6-AF5904538E0F}">
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1895,15 +1895,15 @@
       <c r="F4" s="22"/>
     </row>
     <row r="5" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E5" s="31" t="s">
+      <c r="E5" s="27" t="s">
         <v>0</v>
       </c>
       <c r="F5" s="2">
-        <v>45533</v>
+        <v>45631</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E6" s="32" t="s">
+      <c r="E6" s="28" t="s">
         <v>25</v>
       </c>
       <c r="F6" s="3">
@@ -1911,7 +1911,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E7" s="31" t="s">
+      <c r="E7" s="27" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
@@ -1919,24 +1919,24 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
     </row>
     <row r="9" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
     </row>
     <row r="10" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="24"/>
@@ -1947,14 +1947,14 @@
       <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
     </row>
     <row r="12" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="25"/>
@@ -1965,14 +1965,14 @@
       <c r="F12" s="25"/>
     </row>
     <row r="13" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" s="36"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
+      <c r="A13" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="45"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
     </row>
     <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
@@ -2008,25 +2008,25 @@
         <v>1</v>
       </c>
       <c r="E15" s="20">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="F15" s="20">
-        <f>E15*D15</f>
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+        <f t="shared" ref="F15:F29" si="0">E15*D15</f>
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>2</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C16" s="23"/>
       <c r="D16" s="4"/>
       <c r="E16" s="20"/>
       <c r="F16" s="20">
-        <f>E16*D16</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2045,7 +2045,7 @@
         <v>150</v>
       </c>
       <c r="F17" s="20">
-        <f>E17*D17</f>
+        <f t="shared" si="0"/>
         <v>75900</v>
       </c>
     </row>
@@ -2064,7 +2064,7 @@
         <v>150</v>
       </c>
       <c r="F18" s="20">
-        <f>E18*D18</f>
+        <f t="shared" si="0"/>
         <v>23850</v>
       </c>
     </row>
@@ -2079,7 +2079,7 @@
       <c r="D19" s="4"/>
       <c r="E19" s="20"/>
       <c r="F19" s="20">
-        <f>E19*D19</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2098,7 +2098,7 @@
         <v>1500</v>
       </c>
       <c r="F20" s="20">
-        <f>E20*D20</f>
+        <f t="shared" si="0"/>
         <v>12000</v>
       </c>
     </row>
@@ -2117,7 +2117,7 @@
         <v>1500</v>
       </c>
       <c r="F21" s="20">
-        <f>E21*D21</f>
+        <f t="shared" si="0"/>
         <v>6000</v>
       </c>
     </row>
@@ -2138,7 +2138,7 @@
         <v>15000</v>
       </c>
       <c r="F22" s="20">
-        <f>E22*D22</f>
+        <f t="shared" si="0"/>
         <v>15000</v>
       </c>
     </row>
@@ -2159,7 +2159,7 @@
         <v>10000</v>
       </c>
       <c r="F23" s="20">
-        <f>E23*D23</f>
+        <f t="shared" si="0"/>
         <v>10000</v>
       </c>
     </row>
@@ -2168,7 +2168,7 @@
         <v>6</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C24" s="23" t="s">
         <v>23</v>
@@ -2177,11 +2177,11 @@
         <v>1</v>
       </c>
       <c r="E24" s="19">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="F24" s="20">
-        <f>E24*D24</f>
-        <v>5000</v>
+        <f t="shared" si="0"/>
+        <v>8000</v>
       </c>
     </row>
     <row r="25" spans="1:8" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.2">
@@ -2189,7 +2189,7 @@
         <v>7</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C25" s="23" t="s">
         <v>23</v>
@@ -2201,7 +2201,7 @@
         <v>10000</v>
       </c>
       <c r="F25" s="20">
-        <f>E25*D25</f>
+        <f t="shared" si="0"/>
         <v>10000</v>
       </c>
     </row>
@@ -2210,7 +2210,7 @@
         <v>8</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C26" s="23" t="s">
         <v>13</v>
@@ -2222,16 +2222,16 @@
         <v>1500</v>
       </c>
       <c r="F26" s="20">
-        <f>E26*D26</f>
+        <f t="shared" si="0"/>
         <v>18000</v>
       </c>
     </row>
-    <row r="27" spans="1:8" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="16">
         <v>9</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C27" s="23" t="s">
         <v>23</v>
@@ -2243,7 +2243,7 @@
         <v>1000</v>
       </c>
       <c r="F27" s="20">
-        <f>E27*D27</f>
+        <f t="shared" si="0"/>
         <v>1000</v>
       </c>
     </row>
@@ -2252,7 +2252,7 @@
         <v>10</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C28" s="23" t="s">
         <v>15</v>
@@ -2261,11 +2261,11 @@
         <v>1</v>
       </c>
       <c r="E28" s="19">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="F28" s="20">
-        <f>E28*D28</f>
-        <v>20000</v>
+        <f t="shared" si="0"/>
+        <v>25000</v>
       </c>
     </row>
     <row r="29" spans="1:8" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.2">
@@ -2273,7 +2273,7 @@
         <v>11</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C29" s="23" t="s">
         <v>23</v>
@@ -2285,59 +2285,59 @@
         <v>3000</v>
       </c>
       <c r="F29" s="20">
-        <f>E29*D29</f>
+        <f t="shared" si="0"/>
         <v>3000</v>
       </c>
     </row>
     <row r="30" spans="1:8" s="8" customFormat="1" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="B30" s="44"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="45"/>
+      <c r="A30" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" s="46"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="47"/>
       <c r="F30" s="15">
         <f>SUM(F15:F29)</f>
-        <v>209750</v>
+        <v>222750</v>
       </c>
     </row>
     <row r="31" spans="1:8" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="44" t="s">
+      <c r="A31" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="B31" s="44"/>
-      <c r="C31" s="44"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="45"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="47"/>
       <c r="F31" s="11">
         <f>F30*15%</f>
-        <v>31462.5</v>
+        <v>33412.5</v>
       </c>
     </row>
     <row r="32" spans="1:8" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="B32" s="44"/>
-      <c r="C32" s="44"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="45"/>
+      <c r="A32" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" s="46"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="47"/>
       <c r="F32" s="11">
         <f>F31+F30</f>
-        <v>241212.5</v>
-      </c>
-      <c r="H32" s="46"/>
+        <v>256162.5</v>
+      </c>
+      <c r="H32" s="36"/>
     </row>
     <row r="33" spans="1:6" ht="70.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="29" t="s">
+      <c r="A33" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="B33" s="30"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="41"/>
     </row>
     <row r="34" spans="1:6" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
